--- a/data/trans_orig/P43A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>107581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91676</v>
+        <v>91500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125102</v>
+        <v>125636</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2962756467212623</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2524732111529547</v>
+        <v>0.2519874639366073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3445271388228807</v>
+        <v>0.3459976250289079</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>117569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99195</v>
+        <v>100598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134989</v>
+        <v>135041</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3237817478273655</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2731792374959385</v>
+        <v>0.2770451303514944</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3717553464004787</v>
+        <v>0.3718996077966254</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>69954</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55628</v>
+        <v>57041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86626</v>
+        <v>86088</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1926516368198598</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1531981500610165</v>
+        <v>0.157090458858943</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2385658468486366</v>
+        <v>0.2370828602180155</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>68008</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53979</v>
+        <v>55004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84032</v>
+        <v>84616</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1872909686315123</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1486553729188295</v>
+        <v>0.1514805536829961</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2314211098950587</v>
+        <v>0.2330299579704239</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>83203</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>67497</v>
+        <v>67616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99278</v>
+        <v>100180</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2167645031555116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1758458165943222</v>
+        <v>0.1761547870212887</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2586435331444104</v>
+        <v>0.2609933619631963</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>147076</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129784</v>
+        <v>128495</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166541</v>
+        <v>169108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3831686189921493</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3381181340608573</v>
+        <v>0.3347598600176605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4338777797033077</v>
+        <v>0.4405668184282652</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>87375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70512</v>
+        <v>71895</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103219</v>
+        <v>104524</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2276325507347304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1837007323319275</v>
+        <v>0.1873049153641956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2689088972823734</v>
+        <v>0.2723101884806186</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>66188</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>51613</v>
+        <v>51521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81452</v>
+        <v>80474</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1724343271176087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1344635158869556</v>
+        <v>0.1342239547826094</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2122018324219165</v>
+        <v>0.2096533776365654</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>80892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63874</v>
+        <v>64901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96508</v>
+        <v>96663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2277342454545394</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.179822057453729</v>
+        <v>0.1827146374302957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2716967553036958</v>
+        <v>0.2721317729917533</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>113356</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>96519</v>
+        <v>96585</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>130926</v>
+        <v>131198</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.319127099755679</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2717277874685956</v>
+        <v>0.2719137965852857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3685937116473388</v>
+        <v>0.3693596990877235</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>96622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82154</v>
+        <v>80584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113656</v>
+        <v>115238</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2720165005462903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2312874476319116</v>
+        <v>0.2268672061141392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3199716566380713</v>
+        <v>0.3244276325908253</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>64335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50727</v>
+        <v>50694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78325</v>
+        <v>80269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1811221542434913</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1428090994461367</v>
+        <v>0.1427178219240244</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2205052044543567</v>
+        <v>0.2259796400088588</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>23687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16125</v>
+        <v>15979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34010</v>
+        <v>33529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1701386295874628</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1158185663272106</v>
+        <v>0.1147732372623717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2442871401167366</v>
+        <v>0.2408326833234863</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>61356</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50091</v>
+        <v>50389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>73374</v>
+        <v>73015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4407002948394361</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3597885864386</v>
+        <v>0.3619301618839899</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5270216920385596</v>
+        <v>0.5244430571983715</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>33950</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24730</v>
+        <v>24750</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44938</v>
+        <v>45570</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2438569422673451</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1776304397960925</v>
+        <v>0.1777706781437468</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3227755572305496</v>
+        <v>0.3273148514374433</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>20230</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12944</v>
+        <v>12727</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30265</v>
+        <v>29483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.145304133305756</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09297062062593744</v>
+        <v>0.09141437940155334</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2173830415766581</v>
+        <v>0.2117655859666039</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>295364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>266993</v>
+        <v>266320</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>325270</v>
+        <v>327190</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2379317105026285</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2150775817698536</v>
+        <v>0.2145356423771494</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2620228092027674</v>
+        <v>0.2635693237200004</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>439356</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>406631</v>
+        <v>405605</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>471076</v>
+        <v>471329</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3539251958690144</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3275630176947446</v>
+        <v>0.3267371118889145</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3794774470099591</v>
+        <v>0.3796809768406192</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>287901</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>260179</v>
+        <v>258950</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>318662</v>
+        <v>317517</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2319198844283533</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2095887496997489</v>
+        <v>0.2085980477236326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2566996602425837</v>
+        <v>0.2557771500012803</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>218760</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>192399</v>
+        <v>192658</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>246228</v>
+        <v>246755</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1762232092000038</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1549875842747187</v>
+        <v>0.1551963794710875</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1983502386339408</v>
+        <v>0.1987745540180243</v>
       </c>
     </row>
     <row r="28">
@@ -1487,19 +1487,19 @@
         <v>107825</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90810</v>
+        <v>90647</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129102</v>
+        <v>129604</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2115535435588961</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1781698439190586</v>
+        <v>0.1778507019355355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2533008247171841</v>
+        <v>0.2542859921891607</v>
       </c>
     </row>
     <row r="5">
@@ -1516,19 +1516,19 @@
         <v>178663</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155334</v>
+        <v>156681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200984</v>
+        <v>202331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3505395742282268</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.304767198530444</v>
+        <v>0.307409896443622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3943343467410071</v>
+        <v>0.3969763575972748</v>
       </c>
     </row>
     <row r="6">
@@ -1545,19 +1545,19 @@
         <v>141468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121613</v>
+        <v>122087</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>160945</v>
+        <v>164013</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2775633509992516</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2386061944340844</v>
+        <v>0.2395364703130067</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3157763212661455</v>
+        <v>0.321796925056171</v>
       </c>
     </row>
     <row r="7">
@@ -1574,19 +1574,19 @@
         <v>81724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64578</v>
+        <v>65919</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99179</v>
+        <v>100011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1603435312136254</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1267037812527919</v>
+        <v>0.1293337839264763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1945909849364698</v>
+        <v>0.1962227238927829</v>
       </c>
     </row>
     <row r="8">
@@ -1636,19 +1636,19 @@
         <v>116409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>96857</v>
+        <v>98186</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>136731</v>
+        <v>138292</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2290824369528411</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1906065667751393</v>
+        <v>0.1932226741854273</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2690751951635278</v>
+        <v>0.2721463813503747</v>
       </c>
     </row>
     <row r="10">
@@ -1665,19 +1665,19 @@
         <v>199836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>178307</v>
+        <v>174522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222284</v>
+        <v>221723</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3932605309147446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3508930756390359</v>
+        <v>0.3434435321476831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4374366173769938</v>
+        <v>0.4363317361828776</v>
       </c>
     </row>
     <row r="11">
@@ -1694,19 +1694,19 @@
         <v>121685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103118</v>
+        <v>101728</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142507</v>
+        <v>142836</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2394660158505834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2029266781375163</v>
+        <v>0.2001926941213583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2804414439999003</v>
+        <v>0.2810889627861358</v>
       </c>
     </row>
     <row r="12">
@@ -1723,19 +1723,19 @@
         <v>70222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54674</v>
+        <v>54107</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>87935</v>
+        <v>87917</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1381910162818309</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1075940426699029</v>
+        <v>0.1064781872168547</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1730488283989112</v>
+        <v>0.1730127594540856</v>
       </c>
     </row>
     <row r="13">
@@ -1785,19 +1785,19 @@
         <v>74136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60308</v>
+        <v>59467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91756</v>
+        <v>91896</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1789700286046319</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1455894531971281</v>
+        <v>0.1435596580993319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2215063893305805</v>
+        <v>0.2218441029222275</v>
       </c>
     </row>
     <row r="15">
@@ -1814,19 +1814,19 @@
         <v>179868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>156704</v>
+        <v>158848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>198496</v>
+        <v>201415</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4342168551775389</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3782962507482348</v>
+        <v>0.3834722182847817</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4791874024709292</v>
+        <v>0.4862333817455296</v>
       </c>
     </row>
     <row r="16">
@@ -1843,19 +1843,19 @@
         <v>103649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86803</v>
+        <v>85704</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122611</v>
+        <v>122459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2502183196397704</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2095512729039136</v>
+        <v>0.2068973493267149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2959934890517877</v>
+        <v>0.2956272072784654</v>
       </c>
     </row>
     <row r="17">
@@ -1872,19 +1872,19 @@
         <v>56582</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43473</v>
+        <v>43171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71772</v>
+        <v>70550</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1365947965780587</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1049470869637342</v>
+        <v>0.1042190277315102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.173264872399264</v>
+        <v>0.1703139256615805</v>
       </c>
     </row>
     <row r="18">
@@ -1934,19 +1934,19 @@
         <v>42647</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30061</v>
+        <v>32221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56959</v>
+        <v>57283</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1926695651066407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1358087216011939</v>
+        <v>0.1455668612064405</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2573258886472232</v>
+        <v>0.2587920913753107</v>
       </c>
     </row>
     <row r="20">
@@ -1963,19 +1963,19 @@
         <v>74505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59931</v>
+        <v>60832</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90869</v>
+        <v>90477</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3365954906851095</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2707554617237189</v>
+        <v>0.2748255658926509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4105241777571725</v>
+        <v>0.4087533105089424</v>
       </c>
     </row>
     <row r="21">
@@ -1992,19 +1992,19 @@
         <v>72383</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>58657</v>
+        <v>58390</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88417</v>
+        <v>87852</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3270091066262997</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2649981045372971</v>
+        <v>0.2637934812801327</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3994485631370129</v>
+        <v>0.3968973429090678</v>
       </c>
     </row>
     <row r="22">
@@ -2021,19 +2021,19 @@
         <v>31813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21320</v>
+        <v>20773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45530</v>
+        <v>44715</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1437258375819501</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09632038638218555</v>
+        <v>0.09384839212923156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2056932567926004</v>
+        <v>0.2020117930598777</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>341016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>310151</v>
+        <v>304085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>377812</v>
+        <v>373926</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2062494708173459</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1875822954119599</v>
+        <v>0.1839133685302844</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2285044342715621</v>
+        <v>0.2261540282182051</v>
       </c>
     </row>
     <row r="25">
@@ -2112,19 +2112,19 @@
         <v>632871</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>589317</v>
+        <v>591311</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>672511</v>
+        <v>672638</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3827664132417885</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3564244631558202</v>
+        <v>0.3576303685228775</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4067407136294986</v>
+        <v>0.4068174972843301</v>
       </c>
     </row>
     <row r="26">
@@ -2141,19 +2141,19 @@
         <v>439185</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>401852</v>
+        <v>403792</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>478261</v>
+        <v>476510</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2656233317624402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2430437505576314</v>
+        <v>0.2442171452352316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2892564232192826</v>
+        <v>0.2881979298988187</v>
       </c>
     </row>
     <row r="27">
@@ -2170,19 +2170,19 @@
         <v>240342</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>211409</v>
+        <v>212919</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>272562</v>
+        <v>272297</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1453607841784254</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1278623118502187</v>
+        <v>0.1287751835270384</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1648482041691906</v>
+        <v>0.1646877831310038</v>
       </c>
     </row>
     <row r="28">
@@ -2350,19 +2350,19 @@
         <v>165525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>144235</v>
+        <v>141721</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189189</v>
+        <v>186295</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.275376200953403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.239956607725809</v>
+        <v>0.2357751126180143</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3147455765184479</v>
+        <v>0.3099309796198798</v>
       </c>
     </row>
     <row r="5">
@@ -2379,19 +2379,19 @@
         <v>254872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231536</v>
+        <v>230188</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279236</v>
+        <v>279977</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4240192167974718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.385196830586653</v>
+        <v>0.3829527404160249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4645528710455182</v>
+        <v>0.4657858910538717</v>
       </c>
     </row>
     <row r="6">
@@ -2408,19 +2408,19 @@
         <v>120383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100622</v>
+        <v>102057</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143110</v>
+        <v>142502</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2002757746962965</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1674001275806219</v>
+        <v>0.1697873620040893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2380857669341706</v>
+        <v>0.2370749485089611</v>
       </c>
     </row>
     <row r="7">
@@ -2437,19 +2437,19 @@
         <v>60306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46228</v>
+        <v>46111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75700</v>
+        <v>76813</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1003288075528287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07690767414680298</v>
+        <v>0.07671308407916255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1259388979304656</v>
+        <v>0.1277906987343916</v>
       </c>
     </row>
     <row r="8">
@@ -2499,19 +2499,19 @@
         <v>130810</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>111269</v>
+        <v>110320</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>151723</v>
+        <v>154409</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2531615337605904</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2153433349379838</v>
+        <v>0.213506533440378</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2936336687741775</v>
+        <v>0.2988327408808011</v>
       </c>
     </row>
     <row r="10">
@@ -2528,19 +2528,19 @@
         <v>204379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183702</v>
+        <v>181242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226196</v>
+        <v>228224</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3955414100479682</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3555252626842539</v>
+        <v>0.3507631700806726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4377646854293387</v>
+        <v>0.4416888210958665</v>
       </c>
     </row>
     <row r="11">
@@ -2557,19 +2557,19 @@
         <v>125169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106618</v>
+        <v>105337</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145610</v>
+        <v>148404</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2422442974601821</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.206340546523869</v>
+        <v>0.2038617745321811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.281804567422524</v>
+        <v>0.2872108704106943</v>
       </c>
     </row>
     <row r="12">
@@ -2586,19 +2586,19 @@
         <v>56348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42692</v>
+        <v>41205</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72466</v>
+        <v>71325</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1090527587312594</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0826224080723961</v>
+        <v>0.07974574708874377</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1402460381559834</v>
+        <v>0.1380378140207061</v>
       </c>
     </row>
     <row r="13">
@@ -2648,19 +2648,19 @@
         <v>87742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70845</v>
+        <v>71528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106056</v>
+        <v>106465</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2243592712095691</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1811536704746599</v>
+        <v>0.1829011405812561</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2711903822381323</v>
+        <v>0.2722366962726184</v>
       </c>
     </row>
     <row r="15">
@@ -2677,19 +2677,19 @@
         <v>152669</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>132203</v>
+        <v>134210</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174046</v>
+        <v>172850</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3903829122468719</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3380495606059474</v>
+        <v>0.343180767357881</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4450432055495822</v>
+        <v>0.4419856425769382</v>
       </c>
     </row>
     <row r="16">
@@ -2706,19 +2706,19 @@
         <v>90735</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73057</v>
+        <v>74020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109908</v>
+        <v>109792</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2320148913665923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1868108452057164</v>
+        <v>0.1892721137363679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2810388175234649</v>
+        <v>0.2807433881111898</v>
       </c>
     </row>
     <row r="17">
@@ -2735,19 +2735,19 @@
         <v>59930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46660</v>
+        <v>45414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75793</v>
+        <v>75749</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1532429251769666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1193106633726037</v>
+        <v>0.1161255552519912</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1938057991196547</v>
+        <v>0.1936936175085469</v>
       </c>
     </row>
     <row r="18">
@@ -2797,19 +2797,19 @@
         <v>43750</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31628</v>
+        <v>33368</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59362</v>
+        <v>59452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.184587192866987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1334449264559129</v>
+        <v>0.1407835908743265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2504578675745493</v>
+        <v>0.2508371901610202</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>88968</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73007</v>
+        <v>73292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>105195</v>
+        <v>105617</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3753718820581111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3080304934419574</v>
+        <v>0.3092317353278356</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4438362834591171</v>
+        <v>0.4456158333553203</v>
       </c>
     </row>
     <row r="21">
@@ -2855,19 +2855,19 @@
         <v>71970</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>58234</v>
+        <v>58130</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>86759</v>
+        <v>88771</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3036563187297621</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2456982771284317</v>
+        <v>0.2452622687394105</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3660513441317904</v>
+        <v>0.3745385842791751</v>
       </c>
     </row>
     <row r="22">
@@ -2884,19 +2884,19 @@
         <v>32325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22755</v>
+        <v>22329</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45200</v>
+        <v>44923</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1363846063451397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09600607228930359</v>
+        <v>0.09420938343868715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1907061632999663</v>
+        <v>0.1895371669007807</v>
       </c>
     </row>
     <row r="23">
@@ -2946,19 +2946,19 @@
         <v>427826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>393117</v>
+        <v>392691</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>467055</v>
+        <v>469221</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2450487611295687</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2251679574699578</v>
+        <v>0.2249240183251522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2675183161602198</v>
+        <v>0.2687589547098591</v>
       </c>
     </row>
     <row r="25">
@@ -2975,19 +2975,19 @@
         <v>700888</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>657743</v>
+        <v>659354</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>741096</v>
+        <v>742710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4014523550860601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3767399139725093</v>
+        <v>0.3776626875519216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4244824925736854</v>
+        <v>0.4254068880355113</v>
       </c>
     </row>
     <row r="26">
@@ -3004,19 +3004,19 @@
         <v>408258</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>374902</v>
+        <v>370649</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>448840</v>
+        <v>441774</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2338406687205783</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2147350727333239</v>
+        <v>0.2122990966087369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2570847467868285</v>
+        <v>0.2530375639177911</v>
       </c>
     </row>
     <row r="27">
@@ -3033,19 +3033,19 @@
         <v>208909</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>183649</v>
+        <v>184046</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>238538</v>
+        <v>237476</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1196582150637928</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1051898124412933</v>
+        <v>0.1054172767301909</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1366287113996505</v>
+        <v>0.1360208107270942</v>
       </c>
     </row>
     <row r="28">
@@ -3213,19 +3213,19 @@
         <v>92505</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81045</v>
+        <v>80116</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103054</v>
+        <v>103932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3929759157599896</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3442937049642238</v>
+        <v>0.3403445642483684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4377878908558491</v>
+        <v>0.4415180787725397</v>
       </c>
     </row>
     <row r="5">
@@ -3242,19 +3242,19 @@
         <v>79623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68581</v>
+        <v>68517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90916</v>
+        <v>91615</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3382508174256003</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2913437095260518</v>
+        <v>0.2910730450026148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.386226991783109</v>
+        <v>0.3891943309960189</v>
       </c>
     </row>
     <row r="6">
@@ -3271,19 +3271,19 @@
         <v>42568</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34079</v>
+        <v>33567</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52903</v>
+        <v>52548</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1808372400404517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.144772510249813</v>
+        <v>0.1425969080292541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2247386340081212</v>
+        <v>0.2232334778177406</v>
       </c>
     </row>
     <row r="7">
@@ -3300,19 +3300,19 @@
         <v>20700</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14613</v>
+        <v>14238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28831</v>
+        <v>28397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0879360267739584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06207927446082988</v>
+        <v>0.06048736408728723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1224784368057757</v>
+        <v>0.120634981558598</v>
       </c>
     </row>
     <row r="8">
@@ -3362,19 +3362,19 @@
         <v>170492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>155026</v>
+        <v>155530</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>186444</v>
+        <v>187316</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4192445522315071</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3812143357585014</v>
+        <v>0.3824530880698611</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4584712121471379</v>
+        <v>0.4606155820562107</v>
       </c>
     </row>
     <row r="10">
@@ -3391,19 +3391,19 @@
         <v>120945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107015</v>
+        <v>106237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136423</v>
+        <v>134715</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2974079268143701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2631542478199466</v>
+        <v>0.2612411642564519</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3354675120422801</v>
+        <v>0.3312681499080982</v>
       </c>
     </row>
     <row r="11">
@@ -3420,19 +3420,19 @@
         <v>78013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66161</v>
+        <v>64156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91334</v>
+        <v>90633</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1918371967703969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1626930412826971</v>
+        <v>0.157762169635631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2245936870737492</v>
+        <v>0.2228688197943536</v>
       </c>
     </row>
     <row r="12">
@@ -3449,19 +3449,19 @@
         <v>37214</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28926</v>
+        <v>28609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47431</v>
+        <v>46863</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09151032418372575</v>
+        <v>0.09151032418372576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07112973510906286</v>
+        <v>0.07035007694097951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.116633654436553</v>
+        <v>0.1152374718337581</v>
       </c>
     </row>
     <row r="13">
@@ -3511,19 +3511,19 @@
         <v>115428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103658</v>
+        <v>103082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129896</v>
+        <v>131266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2993600843798644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2688353688339873</v>
+        <v>0.2673407556746926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3368841129096981</v>
+        <v>0.3404364210222519</v>
       </c>
     </row>
     <row r="15">
@@ -3540,19 +3540,19 @@
         <v>131410</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>116422</v>
+        <v>117458</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>145243</v>
+        <v>147027</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3408106710329718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3019394586908256</v>
+        <v>0.3046250566126196</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3766860452129682</v>
+        <v>0.3813112319856092</v>
       </c>
     </row>
     <row r="16">
@@ -3569,19 +3569,19 @@
         <v>89255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76839</v>
+        <v>76825</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103047</v>
+        <v>103551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2314806261196244</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1992817803833148</v>
+        <v>0.1992433955385015</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2672505192012406</v>
+        <v>0.2685571675165101</v>
       </c>
     </row>
     <row r="17">
@@ -3598,19 +3598,19 @@
         <v>49489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40427</v>
+        <v>39542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61449</v>
+        <v>60814</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1283486184675394</v>
+        <v>0.1283486184675395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1048468305493459</v>
+        <v>0.1025515293762851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1593656324726964</v>
+        <v>0.1577191919973856</v>
       </c>
     </row>
     <row r="18">
@@ -3660,19 +3660,19 @@
         <v>94277</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81921</v>
+        <v>81112</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108646</v>
+        <v>107402</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2251333595207446</v>
+        <v>0.2251333595207447</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.195628377782008</v>
+        <v>0.1936971417182649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2594476867002365</v>
+        <v>0.2564757168593352</v>
       </c>
     </row>
     <row r="20">
@@ -3689,19 +3689,19 @@
         <v>123641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108084</v>
+        <v>109934</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>138657</v>
+        <v>138402</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2952554344444626</v>
+        <v>0.2952554344444627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2581065890149483</v>
+        <v>0.2625224470689718</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3311144439659811</v>
+        <v>0.3305057902389406</v>
       </c>
     </row>
     <row r="21">
@@ -3718,19 +3718,19 @@
         <v>129797</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>114526</v>
+        <v>114691</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>144957</v>
+        <v>144418</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3099566882833487</v>
+        <v>0.3099566882833488</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2734880233191941</v>
+        <v>0.2738837647382933</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3461593307570848</v>
+        <v>0.3448723537662259</v>
       </c>
     </row>
     <row r="22">
@@ -3747,19 +3747,19 @@
         <v>71044</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60228</v>
+        <v>59097</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86689</v>
+        <v>84622</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1696545177514439</v>
+        <v>0.169654517751444</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1438249866518768</v>
+        <v>0.1411241370200371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2070151630254878</v>
+        <v>0.2020788501716383</v>
       </c>
     </row>
     <row r="23">
@@ -3809,19 +3809,19 @@
         <v>472701</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>443984</v>
+        <v>445879</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>500690</v>
+        <v>497758</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.326811863489147</v>
+        <v>0.3268118634891471</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3069580089106899</v>
+        <v>0.3082678858648423</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3461627301898383</v>
+        <v>0.3441354018582812</v>
       </c>
     </row>
     <row r="25">
@@ -3838,19 +3838,19 @@
         <v>455619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>431858</v>
+        <v>430003</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>488017</v>
+        <v>485494</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3150020747691329</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2985744769240645</v>
+        <v>0.297291385933328</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3374008954675083</v>
+        <v>0.3356566589041554</v>
       </c>
     </row>
     <row r="26">
@@ -3867,19 +3867,19 @@
         <v>339634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>316129</v>
+        <v>313745</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>365829</v>
+        <v>365533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2348129041555499</v>
+        <v>0.23481290415555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2185627257726298</v>
+        <v>0.216914427919964</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.252923713758492</v>
+        <v>0.2527191022352747</v>
       </c>
     </row>
     <row r="27">
@@ -3896,19 +3896,19 @@
         <v>178447</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>159508</v>
+        <v>158067</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>200011</v>
+        <v>198007</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1233731575861701</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1102793365252059</v>
+        <v>0.109282951340528</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1382816565315061</v>
+        <v>0.136896213643771</v>
       </c>
     </row>
     <row r="28">
